--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_0_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_0_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14926.97744302532</v>
+        <v>2594526.541662664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14926.97744302532</v>
+        <v>2594526.541662664</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80511.42876244328</v>
+        <v>5384348.300671213</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80511.42876244328</v>
+        <v>5384348.300671213</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570334924.377736</v>
+        <v>57309100.00556651</v>
       </c>
     </row>
   </sheetData>
@@ -749,22 +749,22 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>92.48752054139614</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96.01623908801369</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W3" t="n">
-        <v>32.37314290982852</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
         <v>399.3913927661343</v>
@@ -983,22 +983,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>219.6374984753351</v>
       </c>
       <c r="H6" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.06530672634153</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S6" t="n">
         <v>427.609990530649</v>
       </c>
       <c r="T6" t="n">
-        <v>237.8421354798949</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>400.0723880620735</v>
@@ -1049,7 +1049,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y6" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1223,13 +1223,13 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>308.3850184427193</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>323.6423660637066</v>
@@ -1265,28 +1265,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>417.0653067263415</v>
+        <v>17.06530672634153</v>
       </c>
       <c r="S9" t="n">
-        <v>27.60999053064904</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T9" t="n">
         <v>396.904699179778</v>
       </c>
       <c r="U9" t="n">
-        <v>317.3674582984837</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V9" t="n">
-        <v>414.5106671915202</v>
+        <v>14.51066719152016</v>
       </c>
       <c r="W9" t="n">
         <v>432.3731429098285</v>
       </c>
       <c r="X9" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
         <v>361.0999124455193</v>
@@ -1463,19 +1463,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S12" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>134.8765905824525</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U12" t="n">
         <v>400.0723880620735</v>
@@ -1517,7 +1517,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W12" t="n">
-        <v>432.3731429098285</v>
+        <v>261.8608698622584</v>
       </c>
       <c r="X12" t="n">
         <v>419.8627394453875</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
         <v>361.0999124455193</v>
@@ -1709,10 +1709,10 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H15" t="n">
-        <v>311.9138419034023</v>
+        <v>15.64756818701666</v>
       </c>
       <c r="I15" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>357.8797529093583</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>400.0723880620735</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>87.26375172953334</v>
       </c>
       <c r="U16" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>348.8396220007106</v>
       </c>
       <c r="D18" t="n">
         <v>347.9376868977026</v>
@@ -1946,10 +1946,10 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H18" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>319.9848295791041</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T18" t="n">
-        <v>396.904699179778</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V18" t="n">
         <v>414.5106671915202</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>399.3913927661343</v>
@@ -2046,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2174,19 +2174,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G21" t="n">
-        <v>91.56836801157506</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>144.9211972121032</v>
+        <v>2.54824484788771</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="N22" t="n">
-        <v>3.01346973166892</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>361.0999124455193</v>
@@ -2414,16 +2414,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
         <v>323.6423660637066</v>
       </c>
       <c r="H24" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>417.0653067263415</v>
       </c>
       <c r="S24" t="n">
-        <v>40.81532908666991</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>396.904699179778</v>
@@ -2462,13 +2462,13 @@
         <v>400.0723880620735</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>419.8627394453875</v>
+        <v>258.0803603402858</v>
       </c>
       <c r="Y24" t="n">
         <v>399.3913927661343</v>
@@ -2511,31 +2511,31 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>361.0999124455193</v>
@@ -2651,13 +2651,13 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>323.6423660637066</v>
+        <v>161.3637896285648</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I27" t="n">
         <v>144.9211972121032</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S27" t="n">
-        <v>270.7987590369869</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T27" t="n">
         <v>396.904699179778</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V27" t="n">
         <v>414.5106671915202</v>
@@ -2708,7 +2708,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I30" t="n">
-        <v>72.92119721210322</v>
+        <v>71.22288611679522</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>345.0653067263415</v>
       </c>
       <c r="S30" t="n">
-        <v>353.911679435341</v>
+        <v>355.609990530649</v>
       </c>
       <c r="T30" t="n">
         <v>324.904699179778</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>27.31868030524278</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>130.5122714242905</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>78.86248963511369</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>66.71818009655522</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I33" t="n">
-        <v>72.92119721210324</v>
+        <v>71.22288611679522</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>324.904699179778</v>
       </c>
       <c r="U33" t="n">
-        <v>326.3740769667657</v>
+        <v>328.0723880620735</v>
       </c>
       <c r="V33" t="n">
         <v>342.5106671915202</v>
@@ -3219,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>18.4103595154527</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>127.1703102162162</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I36" t="n">
-        <v>72.92119721210322</v>
+        <v>71.22288611679522</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>347.8627394453875</v>
       </c>
       <c r="Y36" t="n">
-        <v>325.6930816708265</v>
+        <v>327.3913927661343</v>
       </c>
     </row>
     <row r="37">
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L37" t="n">
-        <v>27.31868030524278</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>130.5122714242905</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>78.86248963511369</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>66.71818009655522</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>345.0653067263415</v>
+        <v>343.3669956310335</v>
       </c>
       <c r="S39" t="n">
         <v>355.609990530649</v>
@@ -3650,7 +3650,7 @@
         <v>342.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>358.6748318145205</v>
+        <v>360.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>347.8627394453875</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>18.4103595154527</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>127.1703102162162</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>251.6423660637066</v>
       </c>
       <c r="H42" t="n">
-        <v>239.9138419034023</v>
+        <v>238.2155308080943</v>
       </c>
       <c r="I42" t="n">
-        <v>71.22288611679522</v>
+        <v>72.92119721210322</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3930,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>55.42894321323404</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C45" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>347.9376868977026</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T45" t="n">
         <v>396.904699179778</v>
       </c>
       <c r="U45" t="n">
-        <v>400.0723880620735</v>
+        <v>240.479101317838</v>
       </c>
       <c r="V45" t="n">
-        <v>288.9187084523996</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
         <v>432.3731429098285</v>
@@ -4167,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4336,25 +4336,25 @@
         <v>142.64</v>
       </c>
       <c r="J2" t="n">
-        <v>142.64</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K2" t="n">
-        <v>1345.948053533798</v>
+        <v>1737.257166571454</v>
       </c>
       <c r="L2" t="n">
-        <v>2865.334088304425</v>
+        <v>2349.613706772458</v>
       </c>
       <c r="M2" t="n">
-        <v>3007.879221385768</v>
+        <v>3541.827174948629</v>
       </c>
       <c r="N2" t="n">
-        <v>3805.67294631086</v>
+        <v>3666.706049325936</v>
       </c>
       <c r="O2" t="n">
-        <v>5412.519574503671</v>
+        <v>5273.552677518746</v>
       </c>
       <c r="P2" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q2" t="n">
         <v>7131.746396026259</v>
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1408.889932310016</v>
+        <v>600.8091242292076</v>
       </c>
       <c r="C3" t="n">
-        <v>1044.14254600141</v>
+        <v>236.0617379206022</v>
       </c>
       <c r="D3" t="n">
-        <v>1044.14254600141</v>
+        <v>142.64</v>
       </c>
       <c r="E3" t="n">
-        <v>1044.14254600141</v>
+        <v>142.64</v>
       </c>
       <c r="F3" t="n">
-        <v>701.0756345490092</v>
+        <v>142.64</v>
       </c>
       <c r="G3" t="n">
-        <v>604.0895344601065</v>
+        <v>142.64</v>
       </c>
       <c r="H3" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I3" t="n">
         <v>142.64</v>
@@ -4454,13 +4454,13 @@
         <v>2253.520065408679</v>
       </c>
       <c r="W3" t="n">
-        <v>2220.819921055317</v>
+        <v>1816.779517014913</v>
       </c>
       <c r="X3" t="n">
-        <v>2200.756547878158</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y3" t="n">
-        <v>1797.330898619437</v>
+        <v>989.2500905386283</v>
       </c>
     </row>
     <row r="4">
@@ -4497,13 +4497,13 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K4" t="n">
-        <v>390.3645505149111</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="L4" t="n">
-        <v>390.3645505149111</v>
+        <v>466.2549945139549</v>
       </c>
       <c r="M4" t="n">
-        <v>543.7885298165506</v>
+        <v>619.6789738155944</v>
       </c>
       <c r="N4" t="n">
         <v>640.6768339861073</v>
@@ -4573,25 +4573,25 @@
         <v>143.6588504066046</v>
       </c>
       <c r="J5" t="n">
-        <v>864.3122335447629</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="K5" t="n">
-        <v>1574.018599892631</v>
+        <v>1346.966903940403</v>
       </c>
       <c r="L5" t="n">
-        <v>3093.404634663259</v>
+        <v>1959.323444141408</v>
       </c>
       <c r="M5" t="n">
-        <v>3604.253463392194</v>
+        <v>2101.86857722275</v>
       </c>
       <c r="N5" t="n">
-        <v>4217.473783166957</v>
+        <v>3247.666286763122</v>
       </c>
       <c r="O5" t="n">
-        <v>5824.320411359768</v>
+        <v>4854.512914955933</v>
       </c>
       <c r="P5" t="n">
-        <v>6685.908375266875</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q5" t="n">
         <v>7131.746396026259</v>
@@ -4628,22 +4628,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165.51878453212</v>
+        <v>1405.14861104326</v>
       </c>
       <c r="C6" t="n">
-        <v>800.7713982235143</v>
+        <v>1405.14861104326</v>
       </c>
       <c r="D6" t="n">
-        <v>800.7713982235143</v>
+        <v>1053.696402055682</v>
       </c>
       <c r="E6" t="n">
-        <v>800.7713982235143</v>
+        <v>707.562970518396</v>
       </c>
       <c r="F6" t="n">
-        <v>457.7044867711135</v>
+        <v>364.4960590659951</v>
       </c>
       <c r="G6" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H6" t="n">
         <v>142.64</v>
@@ -4676,28 +4676,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R6" t="n">
-        <v>4313.214757291529</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S6" t="n">
-        <v>3881.285473927237</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="T6" t="n">
-        <v>3641.040892634414</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="U6" t="n">
-        <v>3236.92736933939</v>
+        <v>3073.131546591809</v>
       </c>
       <c r="V6" t="n">
-        <v>2818.229725711592</v>
+        <v>2654.43390296401</v>
       </c>
       <c r="W6" t="n">
-        <v>2381.489177317826</v>
+        <v>2217.693354570244</v>
       </c>
       <c r="X6" t="n">
-        <v>1957.385400100262</v>
+        <v>1793.589577352681</v>
       </c>
       <c r="Y6" t="n">
-        <v>1553.959750841541</v>
+        <v>1793.589577352681</v>
       </c>
     </row>
     <row r="7">
@@ -4731,19 +4731,19 @@
         <v>142.64</v>
       </c>
       <c r="J7" t="n">
-        <v>336.0714883323258</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="K7" t="n">
-        <v>648.66370915444</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="L7" t="n">
-        <v>648.66370915444</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="M7" t="n">
-        <v>648.66370915444</v>
+        <v>543.7885298165506</v>
       </c>
       <c r="N7" t="n">
-        <v>648.66370915444</v>
+        <v>640.6768339861073</v>
       </c>
       <c r="O7" t="n">
         <v>648.66370915444</v>
@@ -4807,28 +4807,28 @@
         <v>142.64</v>
       </c>
       <c r="I8" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J8" t="n">
-        <v>864.3122335447629</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K8" t="n">
-        <v>2067.620287078561</v>
+        <v>1243.655479385524</v>
       </c>
       <c r="L8" t="n">
-        <v>3587.006321849188</v>
+        <v>2763.041514156151</v>
       </c>
       <c r="M8" t="n">
-        <v>4097.855150578123</v>
+        <v>2763.041514156152</v>
       </c>
       <c r="N8" t="n">
-        <v>4097.855150578123</v>
+        <v>4068.651665589206</v>
       </c>
       <c r="O8" t="n">
-        <v>5050.89769460008</v>
+        <v>5021.694209611163</v>
       </c>
       <c r="P8" t="n">
-        <v>6274.107538410778</v>
+        <v>6441.28883306601</v>
       </c>
       <c r="Q8" t="n">
         <v>7131.746396026259</v>
@@ -4865,16 +4865,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1492.430265404551</v>
+        <v>1812.315581568738</v>
       </c>
       <c r="C9" t="n">
-        <v>1127.682879095945</v>
+        <v>1447.568195260132</v>
       </c>
       <c r="D9" t="n">
-        <v>1127.682879095945</v>
+        <v>1096.115986272554</v>
       </c>
       <c r="E9" t="n">
-        <v>1127.682879095945</v>
+        <v>784.6159676435443</v>
       </c>
       <c r="F9" t="n">
         <v>784.6159676435443</v>
@@ -4913,28 +4913,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R9" t="n">
-        <v>3909.174353251125</v>
+        <v>4313.214757291529</v>
       </c>
       <c r="S9" t="n">
         <v>3881.285473927237</v>
       </c>
       <c r="T9" t="n">
-        <v>3480.371636371905</v>
+        <v>3480.371636371906</v>
       </c>
       <c r="U9" t="n">
-        <v>3159.798446171417</v>
+        <v>3076.258113076882</v>
       </c>
       <c r="V9" t="n">
-        <v>2741.100802543619</v>
+        <v>3061.600873489488</v>
       </c>
       <c r="W9" t="n">
-        <v>2304.360254149852</v>
+        <v>2624.860325095722</v>
       </c>
       <c r="X9" t="n">
-        <v>2284.296880972693</v>
+        <v>2200.756547878158</v>
       </c>
       <c r="Y9" t="n">
-        <v>1880.871231713972</v>
+        <v>2200.756547878158</v>
       </c>
     </row>
     <row r="10">
@@ -4965,22 +4965,22 @@
         <v>142.64</v>
       </c>
       <c r="I10" t="n">
-        <v>247.9262845651204</v>
+        <v>142.64</v>
       </c>
       <c r="J10" t="n">
-        <v>336.0714883323258</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="K10" t="n">
-        <v>648.66370915444</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="L10" t="n">
-        <v>648.66370915444</v>
+        <v>466.2549945139549</v>
       </c>
       <c r="M10" t="n">
-        <v>648.66370915444</v>
+        <v>543.7885298165506</v>
       </c>
       <c r="N10" t="n">
-        <v>648.66370915444</v>
+        <v>640.6768339861073</v>
       </c>
       <c r="O10" t="n">
         <v>648.66370915444</v>
@@ -5050,22 +5050,22 @@
         <v>533.9491130376557</v>
       </c>
       <c r="K11" t="n">
-        <v>1258.015187659651</v>
+        <v>1243.655479385524</v>
       </c>
       <c r="L11" t="n">
-        <v>2777.401222430278</v>
+        <v>2763.041514156151</v>
       </c>
       <c r="M11" t="n">
-        <v>3288.250051159213</v>
+        <v>3273.890342885087</v>
       </c>
       <c r="N11" t="n">
-        <v>3901.470370933976</v>
+        <v>4320.510133496789</v>
       </c>
       <c r="O11" t="n">
-        <v>4854.512914955933</v>
+        <v>5273.552677518746</v>
       </c>
       <c r="P11" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q11" t="n">
         <v>7131.746396026259</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1675.203035310009</v>
+        <v>1204.973026833469</v>
       </c>
       <c r="C12" t="n">
-        <v>1310.455649001403</v>
+        <v>840.225640524864</v>
       </c>
       <c r="D12" t="n">
-        <v>959.003440013825</v>
+        <v>488.7734315372855</v>
       </c>
       <c r="E12" t="n">
-        <v>959.003440013825</v>
+        <v>142.64</v>
       </c>
       <c r="F12" t="n">
-        <v>615.936528561424</v>
+        <v>142.64</v>
       </c>
       <c r="G12" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="H12" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I12" t="n">
         <v>142.64</v>
@@ -5150,28 +5150,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R12" t="n">
-        <v>4330.45244085349</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S12" t="n">
-        <v>3898.523157489198</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="T12" t="n">
-        <v>3762.284177102882</v>
+        <v>3508.260515695793</v>
       </c>
       <c r="U12" t="n">
-        <v>3358.170653807858</v>
+        <v>3104.14699240077</v>
       </c>
       <c r="V12" t="n">
-        <v>2939.47301018006</v>
+        <v>2685.449348772971</v>
       </c>
       <c r="W12" t="n">
-        <v>2502.732461786294</v>
+        <v>2420.943419619175</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.62868456873</v>
+        <v>1996.839642401612</v>
       </c>
       <c r="Y12" t="n">
-        <v>1675.203035310009</v>
+        <v>1593.41399314289</v>
       </c>
     </row>
     <row r="13">
@@ -5232,16 +5232,16 @@
         <v>230.7852037672054</v>
       </c>
       <c r="S13" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="T13" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="U13" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="V13" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="W13" t="n">
         <v>142.64</v>
@@ -5284,22 +5284,22 @@
         <v>143.6588504066046</v>
       </c>
       <c r="J14" t="n">
-        <v>534.9679634442602</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="K14" t="n">
-        <v>1738.276016978058</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="L14" t="n">
-        <v>3257.662051748685</v>
+        <v>2383.69826831539</v>
       </c>
       <c r="M14" t="n">
-        <v>3768.510880477621</v>
+        <v>2894.547097044326</v>
       </c>
       <c r="N14" t="n">
-        <v>4381.731200252384</v>
+        <v>4200.157248477381</v>
       </c>
       <c r="O14" t="n">
-        <v>5334.77374427434</v>
+        <v>5273.552677518746</v>
       </c>
       <c r="P14" t="n">
         <v>6693.147300973592</v>
@@ -5339,25 +5339,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2336.400953618408</v>
+        <v>1890.757043589631</v>
       </c>
       <c r="C15" t="n">
-        <v>1971.653567309802</v>
+        <v>1526.009657281026</v>
       </c>
       <c r="D15" t="n">
-        <v>1620.201358322224</v>
+        <v>1174.557448293447</v>
       </c>
       <c r="E15" t="n">
-        <v>1274.067926784938</v>
+        <v>828.4240167561618</v>
       </c>
       <c r="F15" t="n">
-        <v>931.0010153325375</v>
+        <v>485.3571053037609</v>
       </c>
       <c r="G15" t="n">
-        <v>604.0895344601065</v>
+        <v>158.44562443133</v>
       </c>
       <c r="H15" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I15" t="n">
         <v>142.64</v>
@@ -5387,28 +5387,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R15" t="n">
-        <v>3968.957740945047</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="S15" t="n">
-        <v>3968.957740945047</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="T15" t="n">
-        <v>3568.043903389716</v>
+        <v>3929.538603298159</v>
       </c>
       <c r="U15" t="n">
-        <v>3163.930380094692</v>
+        <v>3525.425080003135</v>
       </c>
       <c r="V15" t="n">
-        <v>3163.930380094692</v>
+        <v>3106.727436375337</v>
       </c>
       <c r="W15" t="n">
-        <v>3163.930380094692</v>
+        <v>3106.727436375337</v>
       </c>
       <c r="X15" t="n">
-        <v>2739.826602877129</v>
+        <v>2682.623659157774</v>
       </c>
       <c r="Y15" t="n">
-        <v>2336.400953618408</v>
+        <v>2279.198009899052</v>
       </c>
     </row>
     <row r="16">
@@ -5472,7 +5472,7 @@
         <v>230.7852037672054</v>
       </c>
       <c r="T16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U16" t="n">
         <v>142.64</v>
@@ -5518,22 +5518,22 @@
         <v>142.64</v>
       </c>
       <c r="I17" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J17" t="n">
-        <v>864.3122335447629</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K17" t="n">
-        <v>2067.620287078561</v>
+        <v>1243.655479385524</v>
       </c>
       <c r="L17" t="n">
-        <v>2679.976827279566</v>
+        <v>2150.684973955147</v>
       </c>
       <c r="M17" t="n">
-        <v>3872.190295455737</v>
+        <v>2661.533802684082</v>
       </c>
       <c r="N17" t="n">
-        <v>4485.4106152305</v>
+        <v>3666.706049325936</v>
       </c>
       <c r="O17" t="n">
         <v>5273.552677518746</v>
@@ -5576,25 +5576,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1971.653567309802</v>
+        <v>1862.567287395868</v>
       </c>
       <c r="C18" t="n">
-        <v>1971.653567309802</v>
+        <v>1510.204032849696</v>
       </c>
       <c r="D18" t="n">
-        <v>1620.201358322224</v>
+        <v>1158.751823862117</v>
       </c>
       <c r="E18" t="n">
-        <v>1274.067926784938</v>
+        <v>812.6183923248318</v>
       </c>
       <c r="F18" t="n">
-        <v>931.0010153325375</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G18" t="n">
-        <v>604.0895344601065</v>
+        <v>142.64</v>
       </c>
       <c r="H18" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I18" t="n">
         <v>142.64</v>
@@ -5624,28 +5624,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R18" t="n">
-        <v>4007.235441278637</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S18" t="n">
-        <v>4007.235441278637</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="T18" t="n">
-        <v>3606.321603723306</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="U18" t="n">
-        <v>3606.321603723306</v>
+        <v>3073.131546591809</v>
       </c>
       <c r="V18" t="n">
-        <v>3187.623960095508</v>
+        <v>2654.43390296401</v>
       </c>
       <c r="W18" t="n">
-        <v>3187.623960095508</v>
+        <v>2654.43390296401</v>
       </c>
       <c r="X18" t="n">
-        <v>2763.520182877945</v>
+        <v>2654.43390296401</v>
       </c>
       <c r="Y18" t="n">
-        <v>2360.094533619223</v>
+        <v>2251.008253705289</v>
       </c>
     </row>
     <row r="19">
@@ -5694,28 +5694,28 @@
         <v>230.7852037672054</v>
       </c>
       <c r="O19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="P19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="R19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="S19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="T19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="U19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="V19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="W19" t="n">
         <v>142.64</v>
@@ -5755,28 +5755,28 @@
         <v>142.64</v>
       </c>
       <c r="I20" t="n">
-        <v>142.64</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="J20" t="n">
-        <v>863.2933831381582</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="K20" t="n">
-        <v>2066.601436671956</v>
+        <v>2067.620287078561</v>
       </c>
       <c r="L20" t="n">
-        <v>3585.987471442583</v>
+        <v>3587.006321849188</v>
       </c>
       <c r="M20" t="n">
-        <v>3728.532604523926</v>
+        <v>3915.357882898555</v>
       </c>
       <c r="N20" t="n">
-        <v>4341.752924298689</v>
+        <v>4528.578202673318</v>
       </c>
       <c r="O20" t="n">
-        <v>5294.795468320646</v>
+        <v>6135.424830866128</v>
       </c>
       <c r="P20" t="n">
-        <v>6714.390091775493</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q20" t="n">
         <v>7131.746396026259</v>
@@ -5813,25 +5813,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1440.784855459371</v>
+        <v>1877.525403853137</v>
       </c>
       <c r="C21" t="n">
-        <v>1076.037469150765</v>
+        <v>1512.778017544532</v>
       </c>
       <c r="D21" t="n">
-        <v>724.5852601631871</v>
+        <v>1161.325808556953</v>
       </c>
       <c r="E21" t="n">
-        <v>724.5852601631871</v>
+        <v>815.1923770196679</v>
       </c>
       <c r="F21" t="n">
-        <v>381.5183487107861</v>
+        <v>472.125465567267</v>
       </c>
       <c r="G21" t="n">
-        <v>289.0250476889931</v>
+        <v>145.2139846948361</v>
       </c>
       <c r="H21" t="n">
-        <v>289.0250476889931</v>
+        <v>145.2139846948361</v>
       </c>
       <c r="I21" t="n">
         <v>142.64</v>
@@ -5876,13 +5876,13 @@
         <v>3093.495796638843</v>
       </c>
       <c r="W21" t="n">
-        <v>2656.755248245076</v>
+        <v>3093.495796638843</v>
       </c>
       <c r="X21" t="n">
-        <v>2232.651471027513</v>
+        <v>2669.39201942128</v>
       </c>
       <c r="Y21" t="n">
-        <v>1829.225821768792</v>
+        <v>2265.966370162558</v>
       </c>
     </row>
     <row r="22">
@@ -5925,7 +5925,7 @@
         <v>145.6839088198676</v>
       </c>
       <c r="M22" t="n">
-        <v>145.6839088198676</v>
+        <v>142.64</v>
       </c>
       <c r="N22" t="n">
         <v>142.64</v>
@@ -5998,22 +5998,22 @@
         <v>534.9679634442602</v>
       </c>
       <c r="K23" t="n">
-        <v>1738.276016978058</v>
+        <v>1501.224234142062</v>
       </c>
       <c r="L23" t="n">
-        <v>3257.662051748685</v>
+        <v>2408.253728711684</v>
       </c>
       <c r="M23" t="n">
-        <v>4449.875519924856</v>
+        <v>2919.102557440619</v>
       </c>
       <c r="N23" t="n">
-        <v>4449.875519924856</v>
+        <v>4224.712708873674</v>
       </c>
       <c r="O23" t="n">
-        <v>4854.512914955933</v>
+        <v>5831.559337066485</v>
       </c>
       <c r="P23" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q23" t="n">
         <v>7131.746396026259</v>
@@ -6050,25 +6050,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1846.948994477014</v>
+        <v>2021.336466847294</v>
       </c>
       <c r="C24" t="n">
-        <v>1482.201608168408</v>
+        <v>1656.589080538689</v>
       </c>
       <c r="D24" t="n">
-        <v>1130.74939918083</v>
+        <v>1305.136871551111</v>
       </c>
       <c r="E24" t="n">
-        <v>784.6159676435443</v>
+        <v>959.003440013825</v>
       </c>
       <c r="F24" t="n">
-        <v>784.6159676435443</v>
+        <v>615.936528561424</v>
       </c>
       <c r="G24" t="n">
-        <v>457.7044867711135</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="H24" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I24" t="n">
         <v>142.64</v>
@@ -6101,25 +6101,25 @@
         <v>3909.174353251125</v>
       </c>
       <c r="S24" t="n">
-        <v>3867.946748113074</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="T24" t="n">
-        <v>3467.032910557743</v>
+        <v>3508.260515695793</v>
       </c>
       <c r="U24" t="n">
-        <v>3062.919387262719</v>
+        <v>3104.14699240077</v>
       </c>
       <c r="V24" t="n">
-        <v>3062.919387262719</v>
+        <v>2685.449348772971</v>
       </c>
       <c r="W24" t="n">
-        <v>3062.919387262719</v>
+        <v>2685.449348772971</v>
       </c>
       <c r="X24" t="n">
-        <v>2638.815610045156</v>
+        <v>2424.762116106016</v>
       </c>
       <c r="Y24" t="n">
-        <v>2235.389960786435</v>
+        <v>2021.336466847294</v>
       </c>
     </row>
     <row r="25">
@@ -6159,28 +6159,28 @@
         <v>230.7852037672054</v>
       </c>
       <c r="L25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="M25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="N25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="O25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="P25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="R25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="S25" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="T25" t="n">
         <v>142.64</v>
@@ -6229,25 +6229,25 @@
         <v>142.64</v>
       </c>
       <c r="I26" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J26" t="n">
-        <v>534.9679634442602</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K26" t="n">
-        <v>1597.021658765177</v>
+        <v>1027.550800223585</v>
       </c>
       <c r="L26" t="n">
-        <v>2504.051153334799</v>
+        <v>1726.889089264448</v>
       </c>
       <c r="M26" t="n">
-        <v>3014.899982063735</v>
+        <v>2919.102557440619</v>
       </c>
       <c r="N26" t="n">
-        <v>4320.510133496789</v>
+        <v>4224.712708873674</v>
       </c>
       <c r="O26" t="n">
-        <v>5273.552677518746</v>
+        <v>5831.559337066485</v>
       </c>
       <c r="P26" t="n">
         <v>6693.147300973592</v>
@@ -6287,22 +6287,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2021.336466847294</v>
+        <v>1829.416288191116</v>
       </c>
       <c r="C27" t="n">
-        <v>1656.589080538689</v>
+        <v>1464.668901882511</v>
       </c>
       <c r="D27" t="n">
-        <v>1305.136871551111</v>
+        <v>1113.216692894932</v>
       </c>
       <c r="E27" t="n">
-        <v>959.003440013825</v>
+        <v>767.0832613576467</v>
       </c>
       <c r="F27" t="n">
-        <v>615.936528561424</v>
+        <v>767.0832613576467</v>
       </c>
       <c r="G27" t="n">
-        <v>289.0250476889931</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="H27" t="n">
         <v>289.0250476889931</v>
@@ -6335,28 +6335,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R27" t="n">
-        <v>4330.45244085349</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S27" t="n">
-        <v>4056.918340816129</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="T27" t="n">
-        <v>3656.004503260798</v>
+        <v>3076.331232331501</v>
       </c>
       <c r="U27" t="n">
-        <v>3656.004503260798</v>
+        <v>2672.217709036478</v>
       </c>
       <c r="V27" t="n">
-        <v>3237.306859633</v>
+        <v>2253.520065408679</v>
       </c>
       <c r="W27" t="n">
-        <v>3237.306859633</v>
+        <v>2253.520065408679</v>
       </c>
       <c r="X27" t="n">
-        <v>2813.203082415437</v>
+        <v>1829.416288191116</v>
       </c>
       <c r="Y27" t="n">
-        <v>2409.777433156715</v>
+        <v>1829.416288191116</v>
       </c>
     </row>
     <row r="28">
@@ -6417,13 +6417,13 @@
         <v>230.7852037672054</v>
       </c>
       <c r="S28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="T28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="U28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="V28" t="n">
         <v>142.64</v>
@@ -6466,25 +6466,25 @@
         <v>142.64</v>
       </c>
       <c r="I29" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J29" t="n">
-        <v>864.3122335447629</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K29" t="n">
-        <v>864.3122335447629</v>
+        <v>1737.257166571454</v>
       </c>
       <c r="L29" t="n">
-        <v>2265.518904672132</v>
+        <v>3256.643201342081</v>
       </c>
       <c r="M29" t="n">
-        <v>3457.732372848302</v>
+        <v>4448.856669518252</v>
       </c>
       <c r="N29" t="n">
-        <v>4763.342524281357</v>
+        <v>4448.856669518252</v>
       </c>
       <c r="O29" t="n">
-        <v>5716.385068303314</v>
+        <v>5401.899213540208</v>
       </c>
       <c r="P29" t="n">
         <v>6274.107538410778</v>
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C30" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D30" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E30" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F30" t="n">
-        <v>712.8191971507192</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G30" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527248</v>
       </c>
       <c r="H30" t="n">
-        <v>216.2977749617204</v>
+        <v>214.5823092088841</v>
       </c>
       <c r="I30" t="n">
         <v>142.64</v>
@@ -6575,25 +6575,25 @@
         <v>4552.141625978397</v>
       </c>
       <c r="S30" t="n">
-        <v>4194.655081094214</v>
+        <v>4192.939615341378</v>
       </c>
       <c r="T30" t="n">
-        <v>3866.468516266156</v>
+        <v>3864.75305051332</v>
       </c>
       <c r="U30" t="n">
-        <v>3535.082265698405</v>
+        <v>3533.366799945568</v>
       </c>
       <c r="V30" t="n">
-        <v>3189.111894797879</v>
+        <v>3187.396429045043</v>
       </c>
       <c r="W30" t="n">
-        <v>2825.098619131386</v>
+        <v>2823.38315337855</v>
       </c>
       <c r="X30" t="n">
-        <v>2473.722114641096</v>
+        <v>2472.006648888259</v>
       </c>
       <c r="Y30" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="31">
@@ -6630,40 +6630,40 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="M31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="N31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="O31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="P31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="Q31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="R31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="S31" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="T31" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="U31" t="n">
-        <v>142.64</v>
+        <v>210.0321011076315</v>
       </c>
       <c r="V31" t="n">
-        <v>142.64</v>
+        <v>210.0321011076315</v>
       </c>
       <c r="W31" t="n">
         <v>142.64</v>
@@ -6706,25 +6706,25 @@
         <v>142.64</v>
       </c>
       <c r="J32" t="n">
-        <v>863.2933831381582</v>
+        <v>142.64</v>
       </c>
       <c r="K32" t="n">
-        <v>1356.895070324088</v>
+        <v>852.3463663478684</v>
       </c>
       <c r="L32" t="n">
-        <v>2876.281105094715</v>
+        <v>2371.732401118496</v>
       </c>
       <c r="M32" t="n">
-        <v>3018.826238176057</v>
+        <v>3563.945869294666</v>
       </c>
       <c r="N32" t="n">
-        <v>4324.436389609112</v>
+        <v>4177.166189069429</v>
       </c>
       <c r="O32" t="n">
-        <v>5716.385068303314</v>
+        <v>5784.01281726224</v>
       </c>
       <c r="P32" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q32" t="n">
         <v>7131.746396026259</v>
@@ -6761,25 +6761,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C33" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D33" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E33" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F33" t="n">
-        <v>712.8191971507193</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G33" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527248</v>
       </c>
       <c r="H33" t="n">
-        <v>216.2977749617204</v>
+        <v>214.5823092088841</v>
       </c>
       <c r="I33" t="n">
         <v>142.64</v>
@@ -6818,19 +6818,19 @@
         <v>3864.75305051332</v>
       </c>
       <c r="U33" t="n">
-        <v>3535.082265698405</v>
+        <v>3533.366799945568</v>
       </c>
       <c r="V33" t="n">
-        <v>3189.111894797879</v>
+        <v>3187.396429045043</v>
       </c>
       <c r="W33" t="n">
-        <v>2825.098619131386</v>
+        <v>2823.38315337855</v>
       </c>
       <c r="X33" t="n">
-        <v>2473.722114641096</v>
+        <v>2472.006648888259</v>
       </c>
       <c r="Y33" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="34">
@@ -6867,37 +6867,37 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="M34" t="n">
-        <v>302.0652037672054</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="N34" t="n">
-        <v>302.0652037672054</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="O34" t="n">
-        <v>302.0652037672054</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="P34" t="n">
-        <v>302.0652037672054</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.64</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="R34" t="n">
-        <v>142.64</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="S34" t="n">
-        <v>142.64</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="T34" t="n">
-        <v>142.64</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="U34" t="n">
-        <v>142.64</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="V34" t="n">
         <v>142.64</v>
@@ -6940,19 +6940,19 @@
         <v>142.64</v>
       </c>
       <c r="I35" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J35" t="n">
-        <v>864.3122335447629</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K35" t="n">
-        <v>1518.667900023315</v>
+        <v>2066.601436671956</v>
       </c>
       <c r="L35" t="n">
-        <v>3038.053934793943</v>
+        <v>3585.987471442583</v>
       </c>
       <c r="M35" t="n">
-        <v>3548.902763522878</v>
+        <v>4778.200939618755</v>
       </c>
       <c r="N35" t="n">
         <v>4854.512914955933</v>
@@ -6998,25 +6998,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C36" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D36" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E36" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F36" t="n">
-        <v>712.8191971507192</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G36" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527248</v>
       </c>
       <c r="H36" t="n">
-        <v>216.2977749617204</v>
+        <v>214.5823092088841</v>
       </c>
       <c r="I36" t="n">
         <v>142.64</v>
@@ -7067,7 +7067,7 @@
         <v>2472.006648888259</v>
       </c>
       <c r="Y36" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="37">
@@ -7104,40 +7104,40 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="M37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="N37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="O37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="P37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="Q37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="R37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="S37" t="n">
-        <v>274.4705771962531</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="T37" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="U37" t="n">
-        <v>142.64</v>
+        <v>210.0321011076315</v>
       </c>
       <c r="V37" t="n">
-        <v>142.64</v>
+        <v>210.0321011076315</v>
       </c>
       <c r="W37" t="n">
         <v>142.64</v>
@@ -7180,25 +7180,25 @@
         <v>142.64</v>
       </c>
       <c r="J38" t="n">
-        <v>533.9491130376557</v>
+        <v>142.64</v>
       </c>
       <c r="K38" t="n">
-        <v>1737.257166571454</v>
+        <v>852.3463663478684</v>
       </c>
       <c r="L38" t="n">
-        <v>2654.04324253078</v>
+        <v>1759.375860917491</v>
       </c>
       <c r="M38" t="n">
-        <v>3846.256710706951</v>
+        <v>2951.589329093662</v>
       </c>
       <c r="N38" t="n">
-        <v>4459.477030481714</v>
+        <v>4224.712708873674</v>
       </c>
       <c r="O38" t="n">
-        <v>5412.519574503671</v>
+        <v>5831.559337066485</v>
       </c>
       <c r="P38" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q38" t="n">
         <v>7131.746396026259</v>
@@ -7283,19 +7283,19 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R39" t="n">
-        <v>4552.141625978397</v>
+        <v>4553.857091731234</v>
       </c>
       <c r="S39" t="n">
-        <v>4192.939615341378</v>
+        <v>4194.655081094214</v>
       </c>
       <c r="T39" t="n">
-        <v>3864.75305051332</v>
+        <v>3866.468516266156</v>
       </c>
       <c r="U39" t="n">
-        <v>3533.366799945568</v>
+        <v>3535.082265698405</v>
       </c>
       <c r="V39" t="n">
-        <v>3187.396429045043</v>
+        <v>3189.111894797879</v>
       </c>
       <c r="W39" t="n">
         <v>2825.098619131386</v>
@@ -7341,37 +7341,37 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K40" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L40" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="M40" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="N40" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="O40" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="P40" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="R40" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="S40" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="T40" t="n">
-        <v>142.64</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="U40" t="n">
-        <v>142.64</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="V40" t="n">
         <v>142.64</v>
@@ -7414,25 +7414,25 @@
         <v>142.64</v>
       </c>
       <c r="I41" t="n">
-        <v>142.64</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="J41" t="n">
-        <v>863.2933831381582</v>
+        <v>534.9679634442602</v>
       </c>
       <c r="K41" t="n">
-        <v>2066.601436671956</v>
+        <v>1738.276016978058</v>
       </c>
       <c r="L41" t="n">
-        <v>2066.601436671956</v>
+        <v>3257.662051748685</v>
       </c>
       <c r="M41" t="n">
-        <v>3258.814904848127</v>
+        <v>3768.510880477621</v>
       </c>
       <c r="N41" t="n">
-        <v>4224.712708873674</v>
+        <v>4381.731200252384</v>
       </c>
       <c r="O41" t="n">
-        <v>5831.559337066485</v>
+        <v>5334.77374427434</v>
       </c>
       <c r="P41" t="n">
         <v>6693.147300973592</v>
@@ -7490,7 +7490,7 @@
         <v>456.9195232527248</v>
       </c>
       <c r="H42" t="n">
-        <v>214.5823092088841</v>
+        <v>216.2977749617204</v>
       </c>
       <c r="I42" t="n">
         <v>142.64</v>
@@ -7578,28 +7578,28 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K43" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L43" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="M43" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="N43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S43" t="n">
         <v>142.64</v>
@@ -7651,28 +7651,28 @@
         <v>142.64</v>
       </c>
       <c r="I44" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J44" t="n">
-        <v>534.9679634442602</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K44" t="n">
-        <v>1738.276016978058</v>
+        <v>1737.257166571454</v>
       </c>
       <c r="L44" t="n">
-        <v>2645.30551154768</v>
+        <v>2644.286661141076</v>
       </c>
       <c r="M44" t="n">
-        <v>3837.518979723852</v>
+        <v>3155.135489870011</v>
       </c>
       <c r="N44" t="n">
-        <v>4450.739299498615</v>
+        <v>4105.305144378603</v>
       </c>
       <c r="O44" t="n">
-        <v>5412.519574503671</v>
+        <v>5712.151772571413</v>
       </c>
       <c r="P44" t="n">
-        <v>6274.107538410778</v>
+        <v>7131.746396026259</v>
       </c>
       <c r="Q44" t="n">
         <v>7131.746396026259</v>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1548.03993828587</v>
+        <v>1183.292551977265</v>
       </c>
       <c r="C45" t="n">
         <v>1183.292551977265</v>
@@ -7757,28 +7757,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R45" t="n">
-        <v>3909.174353251125</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="S45" t="n">
-        <v>3909.174353251125</v>
+        <v>3898.523157489198</v>
       </c>
       <c r="T45" t="n">
-        <v>3508.260515695793</v>
+        <v>3497.609319933867</v>
       </c>
       <c r="U45" t="n">
-        <v>3104.14699240077</v>
+        <v>3254.701136784535</v>
       </c>
       <c r="V45" t="n">
-        <v>2812.309913155922</v>
+        <v>2836.003493156737</v>
       </c>
       <c r="W45" t="n">
-        <v>2375.569364762155</v>
+        <v>2399.262944762971</v>
       </c>
       <c r="X45" t="n">
-        <v>1951.465587544592</v>
+        <v>1975.159167545407</v>
       </c>
       <c r="Y45" t="n">
-        <v>1548.03993828587</v>
+        <v>1571.733518286686</v>
       </c>
     </row>
     <row r="46">
@@ -7815,43 +7815,43 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K46" t="n">
-        <v>230.7852037672054</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="L46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T46" t="n">
-        <v>142.64</v>
+        <v>142.6399999999812</v>
       </c>
       <c r="U46" t="n">
-        <v>142.64</v>
+        <v>142.6399999999812</v>
       </c>
       <c r="V46" t="n">
-        <v>142.64</v>
+        <v>142.6399999999812</v>
       </c>
       <c r="W46" t="n">
-        <v>142.64</v>
+        <v>142.6399999999812</v>
       </c>
       <c r="X46" t="n">
         <v>142.64</v>
@@ -7984,19 +7984,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N2" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>1032.917105959907</v>
@@ -8221,19 +8221,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K5" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1096.663422488788</v>
+        <v>935.2367135062808</v>
       </c>
       <c r="O5" t="n">
         <v>1032.917105959907</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J8" t="n">
         <v>430.3047365861567</v>
@@ -8467,10 +8467,10 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>1032.917105959907</v>
@@ -8698,7 +8698,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>232.79231054148</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
         <v>916.1914086561842</v>
@@ -8935,7 +8935,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>916.1914086561842</v>
@@ -9175,7 +9175,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
         <v>1060.271045550332</v>
@@ -9184,7 +9184,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
-        <v>205.9427969653973</v>
+        <v>1032.917105959907</v>
       </c>
       <c r="P17" t="n">
         <v>870.5779326741233</v>
@@ -9415,7 +9415,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>875.9303711265254</v>
       </c>
       <c r="N20" t="n">
         <v>1096.663422488788</v>
@@ -9424,10 +9424,10 @@
         <v>1032.917105959907</v>
       </c>
       <c r="P20" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.1222213860234</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9646,7 +9646,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>477.4288722342142</v>
       </c>
       <c r="L23" t="n">
         <v>916.1914086561842</v>
@@ -9655,10 +9655,10 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
-        <v>478.9725110196241</v>
+        <v>1032.917105959907</v>
       </c>
       <c r="P23" t="n">
         <v>870.5779326741233</v>
@@ -9883,10 +9883,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561842</v>
+        <v>706.4023121624878</v>
       </c>
       <c r="M26" t="n">
         <v>1060.271045550332</v>
@@ -10120,7 +10120,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
         <v>916.1914086561842</v>
@@ -10129,13 +10129,13 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N29" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>1032.917105959907</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>119.6178738989271</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
         <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
-        <v>815.848470102727</v>
+        <v>1032.917105959907</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q32" t="n">
         <v>615.8520732695737</v>
@@ -10594,7 +10594,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>162.377756861235</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
         <v>916.1914086561842</v>
@@ -10603,7 +10603,7 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>716.8751175230994</v>
@@ -10840,7 +10840,7 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>1063.848501627129</v>
       </c>
       <c r="O38" t="n">
         <v>1032.917105959907</v>
@@ -11071,7 +11071,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
         <v>1060.271045550332</v>
@@ -11323,7 +11323,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23342,7 +23342,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,19 +23351,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H12" t="n">
         <v>311.9138419034023</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T12" t="n">
-        <v>262.0281085973255</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>170.5122730475701</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>647.5472099483642</v>
       </c>
       <c r="S13" t="n">
-        <v>244.4691542028303</v>
+        <v>331.7329059323636</v>
       </c>
       <c r="T13" t="n">
         <v>202.5122714242905</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>139.1090581091763</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23597,10 +23597,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>296.2662737163856</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18555381698326</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S15" t="n">
         <v>427.609990530649</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>432.3731429098285</v>
@@ -23712,10 +23712,10 @@
         <v>331.7329059323636</v>
       </c>
       <c r="T16" t="n">
-        <v>202.5122714242905</v>
+        <v>115.2485196947571</v>
       </c>
       <c r="U16" t="n">
-        <v>63.59873790558034</v>
+        <v>150.8624896351137</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>361.0999124455193</v>
+        <v>12.26029044480867</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23834,10 +23834,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>97.08047714723733</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U18" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23882,7 +23882,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>302.1330260913569</v>
       </c>
       <c r="O19" t="n">
-        <v>304.6686975953832</v>
+        <v>391.9324493249165</v>
       </c>
       <c r="P19" t="n">
         <v>474.8019956889333</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>226.3728098387097</v>
+        <v>139.1090581091763</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -24062,19 +24062,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>232.0739980521315</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>311.9138419034023</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>142.3729523642155</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24165,10 +24165,10 @@
         <v>162.1517265184349</v>
       </c>
       <c r="M22" t="n">
-        <v>245.0262835336975</v>
+        <v>242.0128138020286</v>
       </c>
       <c r="N22" t="n">
-        <v>299.119556359688</v>
+        <v>302.1330260913569</v>
       </c>
       <c r="O22" t="n">
         <v>391.9324493249165</v>
@@ -24290,7 +24290,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24302,16 +24302,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I24" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>386.7946614439791</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,13 +24350,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>432.3731429098285</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>161.7823791051017</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24399,7 +24399,7 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L25" t="n">
-        <v>74.88797478890153</v>
+        <v>162.1517265184349</v>
       </c>
       <c r="M25" t="n">
         <v>245.0262835336975</v>
@@ -24423,7 +24423,7 @@
         <v>331.7329059323636</v>
       </c>
       <c r="T25" t="n">
-        <v>202.5122714242905</v>
+        <v>115.2485196947571</v>
       </c>
       <c r="U25" t="n">
         <v>150.8624896351137</v>
@@ -24527,7 +24527,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24539,13 +24539,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>162.2785764351417</v>
       </c>
       <c r="H27" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>156.8112314936621</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="28">
@@ -24657,7 +24657,7 @@
         <v>647.5472099483642</v>
       </c>
       <c r="S28" t="n">
-        <v>244.4691542028303</v>
+        <v>331.7329059323636</v>
       </c>
       <c r="T28" t="n">
         <v>202.5122714242905</v>
@@ -24666,7 +24666,7 @@
         <v>150.8624896351137</v>
       </c>
       <c r="V28" t="n">
-        <v>199.1703102162162</v>
+        <v>111.9065584866828</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.698311095308</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.698311095307986</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24870,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>90.15172651843488</v>
@@ -24894,19 +24894,19 @@
         <v>575.5472099483642</v>
       </c>
       <c r="S31" t="n">
-        <v>232.4142256271209</v>
+        <v>259.7329059323636</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>130.5122714242905</v>
       </c>
       <c r="U31" t="n">
-        <v>78.86248963511369</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>127.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>154.3728098387097</v>
+        <v>87.65462974215447</v>
       </c>
       <c r="X31" t="n">
         <v>175.4436454301076</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.698311095308</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.698311095307758</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25107,13 +25107,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.15172651843488</v>
       </c>
       <c r="M34" t="n">
-        <v>173.0262835336975</v>
+        <v>154.6159240182448</v>
       </c>
       <c r="N34" t="n">
         <v>230.1330260913569</v>
@@ -25125,7 +25125,7 @@
         <v>402.8019956889333</v>
       </c>
       <c r="Q34" t="n">
-        <v>348.7833146960646</v>
+        <v>506.614266425598</v>
       </c>
       <c r="R34" t="n">
         <v>575.5472099483642</v>
@@ -25137,10 +25137,10 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U34" t="n">
-        <v>78.86248963511368</v>
+        <v>78.86248963511369</v>
       </c>
       <c r="V34" t="n">
-        <v>127.1703102162162</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>154.3728098387097</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.698311095308</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25307,7 +25307,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.698311095307815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25344,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>62.83304621319211</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M37" t="n">
         <v>173.0262835336975</v>
@@ -25371,16 +25371,16 @@
         <v>259.7329059323636</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>130.5122714242905</v>
       </c>
       <c r="U37" t="n">
-        <v>78.86248963511369</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>127.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>154.3728098387097</v>
+        <v>87.65462974215447</v>
       </c>
       <c r="X37" t="n">
         <v>175.4436454301076</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.698311095308043</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.698311095307929</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>90.15172651843488</v>
@@ -25596,7 +25596,7 @@
         <v>319.9324493249165</v>
       </c>
       <c r="P40" t="n">
-        <v>244.9710439594</v>
+        <v>402.8019956889333</v>
       </c>
       <c r="Q40" t="n">
         <v>506.614266425598</v>
@@ -25611,10 +25611,10 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U40" t="n">
-        <v>78.86248963511369</v>
+        <v>60.45213011966099</v>
       </c>
       <c r="V40" t="n">
-        <v>127.1703102162162</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>154.3728098387097</v>
@@ -25730,10 +25730,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.698311095307986</v>
       </c>
       <c r="I42" t="n">
-        <v>1.698311095308</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25818,16 +25818,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.15172651843488</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>173.0262835336975</v>
       </c>
       <c r="N43" t="n">
-        <v>230.1330260913569</v>
+        <v>174.7040828781228</v>
       </c>
       <c r="O43" t="n">
         <v>319.9324493249165</v>
@@ -25842,7 +25842,7 @@
         <v>575.5472099483642</v>
       </c>
       <c r="S43" t="n">
-        <v>101.9019542028303</v>
+        <v>259.7329059323636</v>
       </c>
       <c r="T43" t="n">
         <v>130.5122714242905</v>
@@ -25949,10 +25949,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S45" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>159.5932867442355</v>
       </c>
       <c r="V45" t="n">
-        <v>125.5919587391205</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26055,10 +26055,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>84.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.1517265184349</v>
+        <v>159.138256786766</v>
       </c>
       <c r="M46" t="n">
         <v>245.0262835336975</v>
@@ -26082,7 +26082,7 @@
         <v>331.7329059323636</v>
       </c>
       <c r="T46" t="n">
-        <v>115.2485196947571</v>
+        <v>202.5122714242719</v>
       </c>
       <c r="U46" t="n">
         <v>150.8624896351137</v>
@@ -26094,7 +26094,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
-        <v>247.4436454301076</v>
+        <v>247.4436454301261</v>
       </c>
       <c r="Y46" t="n">
         <v>287.4653528494624</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15227.92240399552</v>
+        <v>1290861.46634091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30455.84480799104</v>
+        <v>2581722.932681818</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45683.76721198652</v>
+        <v>3872584.39902273</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64077.63304020518</v>
+        <v>4930699.682917373</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82471.49886842383</v>
+        <v>5988814.966812018</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100865.3646966425</v>
+        <v>7046930.250706651</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119259.2305248611</v>
+        <v>8105045.534601285</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137653.0963530797</v>
+        <v>9163160.81849592</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>156046.9621812983</v>
+        <v>10221276.10239055</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173294.835041517</v>
+        <v>11396465.66350118</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>190542.7079017355</v>
+        <v>12571655.22461182</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>207790.5807619542</v>
+        <v>13746844.78572245</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>225038.453622173</v>
+        <v>14922034.3468331</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>242286.3264823918</v>
+        <v>16097223.90794375</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260680.1923106107</v>
+        <v>17155339.1918384</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>913048.3542411313</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411317</v>
+        <v>913048.3542411313</v>
       </c>
       <c r="D2" t="n">
         <v>913048.3542411313</v>
@@ -26331,37 +26331,37 @@
         <v>748423.005681577</v>
       </c>
       <c r="F2" t="n">
-        <v>748423.0056815773</v>
+        <v>748423.0056815774</v>
       </c>
       <c r="G2" t="n">
-        <v>748423.0056815768</v>
+        <v>748423.0056815771</v>
       </c>
       <c r="H2" t="n">
-        <v>748423.005681577</v>
+        <v>748423.0056815771</v>
       </c>
       <c r="I2" t="n">
         <v>748423.0056815771</v>
       </c>
       <c r="J2" t="n">
+        <v>748423.0056815771</v>
+      </c>
+      <c r="K2" t="n">
+        <v>831231.6407855777</v>
+      </c>
+      <c r="L2" t="n">
+        <v>831231.6407855777</v>
+      </c>
+      <c r="M2" t="n">
+        <v>831231.6407855784</v>
+      </c>
+      <c r="N2" t="n">
+        <v>831231.6407855782</v>
+      </c>
+      <c r="O2" t="n">
+        <v>831231.6407855772</v>
+      </c>
+      <c r="P2" t="n">
         <v>748423.005681577</v>
-      </c>
-      <c r="K2" t="n">
-        <v>831231.6407855784</v>
-      </c>
-      <c r="L2" t="n">
-        <v>831231.640785577</v>
-      </c>
-      <c r="M2" t="n">
-        <v>831231.6407855786</v>
-      </c>
-      <c r="N2" t="n">
-        <v>831231.6407855775</v>
-      </c>
-      <c r="O2" t="n">
-        <v>831231.6407855782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>748423.0056815769</v>
       </c>
     </row>
     <row r="3">
@@ -26450,10 +26450,10 @@
         <v>1115.16909319135</v>
       </c>
       <c r="K4" t="n">
-        <v>64506.21516225202</v>
+        <v>64506.21516225203</v>
       </c>
       <c r="L4" t="n">
-        <v>64239.24996669581</v>
+        <v>64239.2499666958</v>
       </c>
       <c r="M4" t="n">
         <v>63971.90320553019</v>
@@ -26462,7 +26462,7 @@
         <v>63704.17204417787</v>
       </c>
       <c r="O4" t="n">
-        <v>63436.05360979277</v>
+        <v>63436.05360979278</v>
       </c>
       <c r="P4" t="n">
         <v>1115.16909319135</v>
@@ -26527,10 +26527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-959822.9162155435</v>
+        <v>-959822.9162155434</v>
       </c>
       <c r="C6" t="n">
-        <v>618940.3170106981</v>
+        <v>618940.3170106979</v>
       </c>
       <c r="D6" t="n">
         <v>619463.2586789061</v>
@@ -26539,37 +26539,37 @@
         <v>617646.4365883857</v>
       </c>
       <c r="F6" t="n">
-        <v>617646.436588386</v>
+        <v>617646.4365883861</v>
       </c>
       <c r="G6" t="n">
-        <v>617646.4365883855</v>
+        <v>617646.4365883858</v>
       </c>
       <c r="H6" t="n">
-        <v>617646.4365883857</v>
+        <v>617646.4365883858</v>
       </c>
       <c r="I6" t="n">
         <v>617646.4365883858</v>
       </c>
       <c r="J6" t="n">
-        <v>-9969.563411614276</v>
+        <v>-9969.563411614159</v>
       </c>
       <c r="K6" t="n">
-        <v>573411.0576233264</v>
+        <v>573411.0576233256</v>
       </c>
       <c r="L6" t="n">
-        <v>631278.0228188812</v>
+        <v>631278.0228188819</v>
       </c>
       <c r="M6" t="n">
-        <v>631545.3695800485</v>
+        <v>631545.3695800483</v>
       </c>
       <c r="N6" t="n">
-        <v>631813.1007413997</v>
+        <v>631813.1007414004</v>
       </c>
       <c r="O6" t="n">
-        <v>632081.2191757854</v>
+        <v>632081.2191757845</v>
       </c>
       <c r="P6" t="n">
-        <v>617646.4365883856</v>
+        <v>617646.4365883857</v>
       </c>
     </row>
   </sheetData>
@@ -27593,22 +27593,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>347.9376868977026</v>
+        <v>255.4501663563065</v>
       </c>
       <c r="E3" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>227.6261269756928</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27650,10 +27650,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27693,16 +27693,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>245.4415413389813</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L4" t="n">
-        <v>162.1517265184349</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
         <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>400</v>
+        <v>323.3429858595518</v>
       </c>
       <c r="O4" t="n">
         <v>400</v>
@@ -27827,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>323.6423660637066</v>
+        <v>104.0048675883714</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I6" t="n">
         <v>144.9211972121032</v>
@@ -27872,13 +27872,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>159.0625636998831</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27893,7 +27893,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="7">
@@ -27927,22 +27927,22 @@
         <v>123.759685128315</v>
       </c>
       <c r="J7" t="n">
-        <v>106.3497823890105</v>
+        <v>161.1912593411169</v>
       </c>
       <c r="K7" t="n">
-        <v>400</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L7" t="n">
         <v>162.1517265184349</v>
       </c>
       <c r="M7" t="n">
-        <v>245.0262835336975</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>302.1330260913569</v>
+        <v>400</v>
       </c>
       <c r="O7" t="n">
-        <v>391.9324493249165</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
         <v>400</v>
@@ -28067,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>342.6720972219126</v>
+        <v>34.28707877919328</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -28109,28 +28109,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>400</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>82.7049297635898</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -28161,25 +28161,25 @@
         <v>213.1391588885039</v>
       </c>
       <c r="I10" t="n">
-        <v>230.1094675173255</v>
+        <v>123.759685128315</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>84.25028199786442</v>
+      </c>
+      <c r="L10" t="n">
         <v>400</v>
       </c>
-      <c r="L10" t="n">
-        <v>162.1517265184349</v>
-      </c>
       <c r="M10" t="n">
-        <v>245.0262835336975</v>
+        <v>323.3429858595518</v>
       </c>
       <c r="N10" t="n">
-        <v>302.1330260913569</v>
+        <v>400</v>
       </c>
       <c r="O10" t="n">
-        <v>391.9324493249165</v>
+        <v>400</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -31180,7 +31180,7 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J2" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>498.5875628140704</v>
@@ -31192,16 +31192,16 @@
         <v>688.2471105527638</v>
       </c>
       <c r="N2" t="n">
-        <v>186.4377829801308</v>
+        <v>603.3892352186298</v>
       </c>
       <c r="O2" t="n">
         <v>660.4081658291458</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q2" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>246.2144472361809</v>
@@ -31417,28 +31417,28 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J5" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L5" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>688.2471105527638</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>699.3836683417086</v>
       </c>
       <c r="O5" t="n">
         <v>660.4081658291458</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.312046168401196</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R5" t="n">
         <v>246.2144472361809</v>
@@ -31654,28 +31654,28 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J8" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N8" t="n">
-        <v>477.2489580698352</v>
+        <v>699.3836683417086</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>365.2746261652429</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q8" t="n">
-        <v>423.2724874371859</v>
+        <v>254.4024928359416</v>
       </c>
       <c r="R8" t="n">
         <v>246.2144472361809</v>
@@ -31894,7 +31894,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>618.541959798995</v>
@@ -31903,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.7772432696358</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -31912,7 +31912,7 @@
         <v>563.6430904522613</v>
       </c>
       <c r="Q11" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>246.2144472361809</v>
@@ -32128,10 +32128,10 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K14" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>618.541959798995</v>
@@ -32140,13 +32140,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>699.3836683417086</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>121.5685707266762</v>
       </c>
       <c r="P14" t="n">
-        <v>501.8036290829742</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -32362,22 +32362,22 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I17" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J17" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>618.541959798995</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>395.9110372394858</v>
       </c>
       <c r="O17" t="n">
         <v>660.4081658291458</v>
@@ -32599,7 +32599,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I20" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J20" t="n">
         <v>332.6709798994975</v>
@@ -32611,19 +32611,19 @@
         <v>618.541959798995</v>
       </c>
       <c r="M20" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>660.4081658291458</v>
       </c>
       <c r="P20" t="n">
         <v>563.6430904522613</v>
       </c>
       <c r="Q20" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>246.2144472361809</v>
@@ -32845,22 +32845,22 @@
         <v>498.5875628140704</v>
       </c>
       <c r="L23" t="n">
-        <v>618.541959798995</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>477.2489580698352</v>
+        <v>699.3836683417086</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>660.4081658291458</v>
       </c>
       <c r="P23" t="n">
-        <v>563.6430904522613</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>246.2144472361809</v>
@@ -33073,28 +33073,28 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I26" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>355.906392902069</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>688.2471105527638</v>
       </c>
       <c r="N26" t="n">
         <v>699.3836683417086</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>660.4081658291458</v>
       </c>
       <c r="P26" t="n">
-        <v>563.6430904522613</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -33310,28 +33310,28 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I29" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J29" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L29" t="n">
-        <v>499.1688652098449</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M29" t="n">
         <v>688.2471105527638</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3836683417086</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>563.6430904522613</v>
+        <v>10.72763733683132</v>
       </c>
       <c r="Q29" t="n">
         <v>423.2724874371859</v>
@@ -33547,13 +33547,13 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I32" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J32" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>618.541959798995</v>
@@ -33562,16 +33562,16 @@
         <v>688.2471105527638</v>
       </c>
       <c r="N32" t="n">
-        <v>699.3836683417086</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>660.4081658291458</v>
       </c>
       <c r="P32" t="n">
-        <v>563.6430904522613</v>
+        <v>48.02678768105523</v>
       </c>
       <c r="Q32" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>246.2144472361809</v>
@@ -33784,7 +33784,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I35" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J35" t="n">
         <v>332.6709798994975</v>
@@ -33796,10 +33796,10 @@
         <v>618.541959798995</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>688.2471105527638</v>
       </c>
       <c r="N35" t="n">
-        <v>699.3836683417086</v>
+        <v>554.3317614407216</v>
       </c>
       <c r="O35" t="n">
         <v>70.24786957409245</v>
@@ -34027,25 +34027,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>9.855132716872504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>688.2471105527638</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>699.3836683417086</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>660.4081658291458</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>246.2144472361809</v>
@@ -34258,28 +34258,28 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I41" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J41" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>498.5875628140704</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>356.2398830815998</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>660.4081658291458</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>501.8036290829742</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -34495,7 +34495,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I44" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34507,19 +34507,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>340.3528633675033</v>
       </c>
       <c r="O44" t="n">
-        <v>8.825990892019718</v>
+        <v>660.4081658291458</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q44" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>246.2144472361809</v>
@@ -34828,28 +34828,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K2" t="n">
         <v>1215.46268033717</v>
       </c>
       <c r="L2" t="n">
-        <v>1534.733368455179</v>
+        <v>618.5419597989949</v>
       </c>
       <c r="M2" t="n">
-        <v>143.9849829104465</v>
+        <v>1204.256028460779</v>
       </c>
       <c r="N2" t="n">
-        <v>805.8522473990835</v>
+        <v>126.1402771487946</v>
       </c>
       <c r="O2" t="n">
         <v>1623.07740221496</v>
       </c>
       <c r="P2" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q2" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34989,16 +34989,16 @@
         <v>89.03555936081352</v>
       </c>
       <c r="K4" t="n">
-        <v>161.1912593411169</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>237.8482734815651</v>
       </c>
       <c r="M4" t="n">
         <v>154.9737164663025</v>
       </c>
       <c r="N4" t="n">
-        <v>97.8669739086431</v>
+        <v>21.20995976819487</v>
       </c>
       <c r="O4" t="n">
         <v>8.067550675083453</v>
@@ -35065,28 +35065,28 @@
         <v>1.029141824853099</v>
       </c>
       <c r="J5" t="n">
-        <v>727.9327102405639</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230993</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L5" t="n">
-        <v>1534.733368455179</v>
+        <v>618.5419597989949</v>
       </c>
       <c r="M5" t="n">
-        <v>516.0089179080152</v>
+        <v>143.9849829104465</v>
       </c>
       <c r="N5" t="n">
-        <v>619.4144644189528</v>
+        <v>1157.371423778154</v>
       </c>
       <c r="O5" t="n">
         <v>1623.07740221496</v>
       </c>
       <c r="P5" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q5" t="n">
-        <v>450.3414351104894</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35223,22 +35223,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>195.385341749824</v>
+        <v>250.2268187019304</v>
       </c>
       <c r="K7" t="n">
-        <v>315.7497180021356</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>154.9737164663025</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>97.8669739086431</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>8.067550675083453</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35299,31 +35299,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K8" t="n">
-        <v>1215.46268033717</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L8" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M8" t="n">
-        <v>516.0089179080152</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1318.798132760661</v>
       </c>
       <c r="O8" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P8" t="n">
-        <v>1235.565498798685</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q8" t="n">
-        <v>866.3018763792742</v>
+        <v>697.4318817780298</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35457,25 +35457,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>106.3497823890105</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>89.03555936081352</v>
       </c>
       <c r="K10" t="n">
-        <v>315.7497180021356</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>237.8482734815651</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>78.31670232585428</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>97.8669739086431</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.067550675083453</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35542,7 +35542,7 @@
         <v>395.2617303410664</v>
       </c>
       <c r="K11" t="n">
-        <v>731.3798733555504</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L11" t="n">
         <v>1534.733368455179</v>
@@ -35551,7 +35551,7 @@
         <v>516.0089179080152</v>
       </c>
       <c r="N11" t="n">
-        <v>619.4144644189528</v>
+        <v>1057.191707688589</v>
       </c>
       <c r="O11" t="n">
         <v>962.6692363858147</v>
@@ -35560,7 +35560,7 @@
         <v>1433.933963085703</v>
       </c>
       <c r="Q11" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35776,10 +35776,10 @@
         <v>1.029141824853099</v>
       </c>
       <c r="J14" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K14" t="n">
-        <v>1215.46268033717</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1534.733368455179</v>
@@ -35788,13 +35788,13 @@
         <v>516.0089179080152</v>
       </c>
       <c r="N14" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760661</v>
       </c>
       <c r="O14" t="n">
-        <v>962.6692363858147</v>
+        <v>1084.237807112491</v>
       </c>
       <c r="P14" t="n">
-        <v>1372.094501716416</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q14" t="n">
         <v>443.0293889420883</v>
@@ -36010,25 +36010,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K17" t="n">
-        <v>1215.46268033717</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L17" t="n">
-        <v>618.5419597989949</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N17" t="n">
-        <v>619.4144644189528</v>
+        <v>1015.325501658438</v>
       </c>
       <c r="O17" t="n">
-        <v>796.1030932204505</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P17" t="n">
         <v>1433.933963085703</v>
@@ -36247,7 +36247,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.029141824853099</v>
       </c>
       <c r="J20" t="n">
         <v>727.9327102405639</v>
@@ -36259,19 +36259,19 @@
         <v>1534.733368455179</v>
       </c>
       <c r="M20" t="n">
-        <v>143.9849829104465</v>
+        <v>331.6682434842081</v>
       </c>
       <c r="N20" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O20" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P20" t="n">
-        <v>1433.933963085703</v>
+        <v>563.3560304115798</v>
       </c>
       <c r="Q20" t="n">
-        <v>421.572024495724</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36490,25 +36490,25 @@
         <v>395.2617303410664</v>
       </c>
       <c r="K23" t="n">
-        <v>1215.46268033717</v>
+        <v>976.0164350482845</v>
       </c>
       <c r="L23" t="n">
-        <v>1534.733368455179</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M23" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1318.798132760661</v>
       </c>
       <c r="O23" t="n">
-        <v>408.7246414455316</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P23" t="n">
-        <v>1433.933963085703</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q23" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36721,28 +36721,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>395.2617303410664</v>
       </c>
       <c r="K26" t="n">
-        <v>1072.781510425169</v>
+        <v>498.5875628140705</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561842</v>
+        <v>706.4023121624878</v>
       </c>
       <c r="M26" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460779</v>
       </c>
       <c r="N26" t="n">
         <v>1318.798132760661</v>
       </c>
       <c r="O26" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P26" t="n">
-        <v>1433.933963085703</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q26" t="n">
         <v>443.0293889420883</v>
@@ -36958,28 +36958,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L29" t="n">
-        <v>1415.360273866029</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M29" t="n">
         <v>1204.256028460779</v>
       </c>
       <c r="N29" t="n">
-        <v>1318.798132760661</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P29" t="n">
-        <v>563.3560304115798</v>
+        <v>881.018509970273</v>
       </c>
       <c r="Q29" t="n">
         <v>866.3018763792742</v>
@@ -37052,7 +37052,7 @@
         <v>690.3250421645041</v>
       </c>
       <c r="N30" t="n">
-        <v>752.0654652029946</v>
+        <v>752.0654652029948</v>
       </c>
       <c r="O30" t="n">
         <v>812.4270690725577</v>
@@ -37198,28 +37198,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>727.9327102405639</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>498.5875628140705</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M32" t="n">
-        <v>143.9849829104465</v>
+        <v>1204.256028460779</v>
       </c>
       <c r="N32" t="n">
-        <v>1318.798132760661</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O32" t="n">
-        <v>1406.00876635778</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P32" t="n">
-        <v>563.3560304115798</v>
+        <v>918.3176603144969</v>
       </c>
       <c r="Q32" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37432,22 +37432,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>727.9327102405639</v>
       </c>
       <c r="K35" t="n">
-        <v>660.9653196753054</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L35" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M35" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460779</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.798132760661</v>
+        <v>77.08280337088637</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37672,28 +37672,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1215.46268033717</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>926.0465413730567</v>
+        <v>916.1914086561841</v>
       </c>
       <c r="M38" t="n">
         <v>1204.256028460779</v>
       </c>
       <c r="N38" t="n">
-        <v>619.4144644189528</v>
+        <v>1285.983211899002</v>
       </c>
       <c r="O38" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P38" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q38" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37906,28 +37906,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.029141824853099</v>
       </c>
       <c r="J41" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K41" t="n">
         <v>1215.46268033717</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M41" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N41" t="n">
-        <v>975.6543475005525</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O41" t="n">
-        <v>1623.07740221496</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P41" t="n">
-        <v>870.2908726334418</v>
+        <v>1372.094501716416</v>
       </c>
       <c r="Q41" t="n">
         <v>443.0293889420883</v>
@@ -38143,7 +38143,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>395.2617303410664</v>
@@ -38155,19 +38155,19 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M44" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N44" t="n">
-        <v>619.4144644189528</v>
+        <v>959.7673277864561</v>
       </c>
       <c r="O44" t="n">
-        <v>971.4952272778343</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P44" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q44" t="n">
-        <v>866.3018763792742</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
